--- a/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12580FDD-1FDF-4F61-8E65-31E786C22741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0612BAD3-F6C7-4731-96B9-6EE216B002CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E3FA76D-1E74-41A2-8887-EE3CE7AC4FC8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F27449A4-7B45-4ADD-94D7-375E454A146E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>53,62%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>54,78%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>30,98%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,28 +194,28 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -230,301 +230,301 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>9,14%</t>
@@ -533,58 +533,58 @@
     <t>8,38%</t>
   </si>
   <si>
-    <t>9,94%</t>
+    <t>9,86%</t>
   </si>
   <si>
     <t>58,08%</t>
   </si>
   <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
   </si>
   <si>
     <t>57,53%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>31,15%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>29,84%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>3,65%</t>
@@ -593,25 +593,22 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>9,13%</t>
+    <t>9,12%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA4678-22D7-4F8B-909E-DC1F7147BB67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16009FF-D3DA-40B0-8829-F22A5412CBA5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,10 +1473,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -1488,13 +1485,13 @@
         <v>31880</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1506,13 @@
         <v>156313</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>252</v>
@@ -1524,13 +1521,13 @@
         <v>173488</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
@@ -1539,13 +1536,13 @@
         <v>329800</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1557,13 @@
         <v>1252033</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1780</v>
@@ -1575,13 +1572,13 @@
         <v>1282261</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>2967</v>
@@ -1590,13 +1587,13 @@
         <v>2534294</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1608,13 @@
         <v>648738</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>808</v>
@@ -1626,13 +1623,13 @@
         <v>735921</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1412</v>
@@ -1641,13 +1638,13 @@
         <v>1384659</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,13 +1659,13 @@
         <v>91548</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -1677,13 +1674,13 @@
         <v>35549</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -1692,13 +1689,13 @@
         <v>127097</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1766,13 +1763,13 @@
         <v>9544</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -1781,13 +1778,13 @@
         <v>13112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -1796,10 +1793,10 @@
         <v>22656</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -1883,13 +1880,13 @@
         <v>433557</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>1030</v>
@@ -1898,13 +1895,13 @@
         <v>836546</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1919,13 +1916,13 @@
         <v>174001</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -1934,13 +1931,13 @@
         <v>155798</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>382</v>
@@ -1949,13 +1946,13 @@
         <v>329799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1970,13 +1967,13 @@
         <v>15341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -1985,13 +1982,13 @@
         <v>5092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2003,10 +2000,10 @@
         <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2071,13 @@
         <v>28924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -2089,7 +2086,7 @@
         <v>39570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>152</v>
@@ -2191,13 +2188,13 @@
         <v>2163474</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>5179</v>
@@ -2206,13 +2203,13 @@
         <v>4124802</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2221,13 @@
         <v>978</v>
       </c>
       <c r="D25" s="7">
-        <v>990531</v>
+        <v>990530</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>176</v>
@@ -2299,7 +2296,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>152</v>
@@ -2308,13 +2305,13 @@
         <v>181440</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2323,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2370,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0612BAD3-F6C7-4731-96B9-6EE216B002CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A03B8E0-1BE3-4E88-BDA3-A573AEB6661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F27449A4-7B45-4ADD-94D7-375E454A146E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F846898B-2881-4330-BA1F-FF6EFCF2F400}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16009FF-D3DA-40B0-8829-F22A5412CBA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE5570A-0A14-4B9E-BA22-C09AB8EFFBC6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A03B8E0-1BE3-4E88-BDA3-A573AEB6661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C81C4EC-7D59-40EF-9D56-9A6B2F9F36D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F846898B-2881-4330-BA1F-FF6EFCF2F400}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB7F7156-EB6B-465E-824A-6D450D27C0FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -74,517 +74,517 @@
     <t>1,11%</t>
   </si>
   <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>57,03%</t>
   </si>
   <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
   </si>
   <si>
     <t>57,53%</t>
   </si>
   <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>31,15%</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
   </si>
   <si>
     <t>29,84%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
   </si>
   <si>
     <t>3,65%</t>
@@ -593,22 +593,25 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>9,12%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>1,16%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1023,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE5570A-0A14-4B9E-BA22-C09AB8EFFBC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6875BBC6-54C0-4A5C-A297-0BBB05BEB156}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1473,10 +1476,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -1485,13 +1488,13 @@
         <v>31880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,13 +1509,13 @@
         <v>156313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>252</v>
@@ -1521,13 +1524,13 @@
         <v>173488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
@@ -1536,13 +1539,13 @@
         <v>329800</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1560,13 @@
         <v>1252033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1780</v>
@@ -1572,13 +1575,13 @@
         <v>1282261</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>2967</v>
@@ -1587,13 +1590,13 @@
         <v>2534294</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1611,13 @@
         <v>648738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>808</v>
@@ -1623,13 +1626,13 @@
         <v>735921</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1412</v>
@@ -1638,13 +1641,13 @@
         <v>1384659</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1662,13 @@
         <v>91548</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -1674,13 +1677,13 @@
         <v>35549</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
@@ -1689,13 +1692,13 @@
         <v>127097</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1754,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1766,13 @@
         <v>9544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -1778,13 +1781,13 @@
         <v>13112</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -1793,10 +1796,10 @@
         <v>22656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -1880,13 +1883,13 @@
         <v>433557</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>1030</v>
@@ -1895,13 +1898,13 @@
         <v>836546</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,13 +1919,13 @@
         <v>174001</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
@@ -1931,13 +1934,13 @@
         <v>155798</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>382</v>
@@ -1946,13 +1949,13 @@
         <v>329799</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1970,13 @@
         <v>15341</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -1982,13 +1985,13 @@
         <v>5092</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2000,10 +2003,10 @@
         <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2074,13 @@
         <v>28924</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
@@ -2086,7 +2089,7 @@
         <v>39570</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>152</v>
@@ -2188,13 +2191,13 @@
         <v>2163474</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>5179</v>
@@ -2203,13 +2206,13 @@
         <v>4124802</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2224,13 @@
         <v>978</v>
       </c>
       <c r="D25" s="7">
-        <v>990530</v>
+        <v>990531</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>176</v>
@@ -2296,7 +2299,7 @@
         <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>152</v>
@@ -2305,13 +2308,13 @@
         <v>181440</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2326,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B16_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C81C4EC-7D59-40EF-9D56-9A6B2F9F36D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{195ADAAC-0BC8-4ED2-B4BC-3A6316ABADD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB7F7156-EB6B-465E-824A-6D450D27C0FA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D5816620-3667-4F7B-8B85-81A49B3621A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="192">
   <si>
     <t>Población según el número de veces a la semana que consume patatas en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
@@ -71,19 +71,19 @@
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>1,11%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -95,523 +95,520 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>53,62%</t>
   </si>
   <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
   </si>
   <si>
     <t>28,5%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1026,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6875BBC6-54C0-4A5C-A297-0BBB05BEB156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14F6A7D-8490-4433-9697-EE80EB59CFA8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,7 +1144,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>5990</v>
+        <v>5649</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1162,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>7969</v>
+        <v>7210</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1177,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>13958</v>
+        <v>12859</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1198,7 +1195,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="7">
-        <v>45151</v>
+        <v>42719</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1213,7 +1210,7 @@
         <v>181</v>
       </c>
       <c r="I5" s="7">
-        <v>104106</v>
+        <v>93633</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1228,7 +1225,7 @@
         <v>238</v>
       </c>
       <c r="N5" s="7">
-        <v>149257</v>
+        <v>136352</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1249,7 +1246,7 @@
         <v>398</v>
       </c>
       <c r="D6" s="7">
-        <v>306306</v>
+        <v>291241</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1264,7 +1261,7 @@
         <v>784</v>
       </c>
       <c r="I6" s="7">
-        <v>447657</v>
+        <v>407448</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1279,7 +1276,7 @@
         <v>1182</v>
       </c>
       <c r="N6" s="7">
-        <v>753963</v>
+        <v>698689</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1300,7 +1297,7 @@
         <v>208</v>
       </c>
       <c r="D7" s="7">
-        <v>167792</v>
+        <v>159814</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1315,7 +1312,7 @@
         <v>421</v>
       </c>
       <c r="I7" s="7">
-        <v>257552</v>
+        <v>230338</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1330,7 +1327,7 @@
         <v>629</v>
       </c>
       <c r="N7" s="7">
-        <v>425344</v>
+        <v>390152</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1351,7 +1348,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>16395</v>
+        <v>15515</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1366,7 +1363,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>17515</v>
+        <v>15813</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1381,7 +1378,7 @@
         <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>33910</v>
+        <v>31329</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1402,7 +1399,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1417,7 +1414,7 @@
         <v>1425</v>
       </c>
       <c r="I9" s="7">
-        <v>834798</v>
+        <v>754443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1432,7 +1429,7 @@
         <v>2116</v>
       </c>
       <c r="N9" s="7">
-        <v>1376432</v>
+        <v>1269381</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1455,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>13390</v>
+        <v>13185</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -1464,37 +1461,37 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>18490</v>
+        <v>17386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>31880</v>
+        <v>30572</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,46 +1503,46 @@
         <v>151</v>
       </c>
       <c r="D11" s="7">
-        <v>156313</v>
+        <v>153916</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>252</v>
       </c>
       <c r="I11" s="7">
-        <v>173488</v>
+        <v>161661</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>329800</v>
+        <v>315577</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,46 +1554,46 @@
         <v>1187</v>
       </c>
       <c r="D12" s="7">
-        <v>1252033</v>
+        <v>1223932</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>1780</v>
       </c>
       <c r="I12" s="7">
-        <v>1282261</v>
+        <v>1202024</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>2967</v>
       </c>
       <c r="N12" s="7">
-        <v>2534294</v>
+        <v>2425956</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,46 +1605,46 @@
         <v>604</v>
       </c>
       <c r="D13" s="7">
-        <v>648738</v>
+        <v>617995</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>808</v>
       </c>
       <c r="I13" s="7">
-        <v>735921</v>
+        <v>821077</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1412</v>
       </c>
       <c r="N13" s="7">
-        <v>1384659</v>
+        <v>1439073</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,46 +1656,46 @@
         <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>91548</v>
+        <v>281298</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>35549</v>
+        <v>32140</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>127097</v>
+        <v>313438</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1707,7 @@
         <v>1992</v>
       </c>
       <c r="D15" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -1725,7 +1722,7 @@
         <v>2916</v>
       </c>
       <c r="I15" s="7">
-        <v>2245708</v>
+        <v>2234288</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -1740,7 +1737,7 @@
         <v>4908</v>
       </c>
       <c r="N15" s="7">
-        <v>4407730</v>
+        <v>4524615</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1763,43 +1760,43 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>9544</v>
+        <v>9263</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>13112</v>
+        <v>12114</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>22656</v>
+        <v>21377</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -1814,7 +1811,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>71164</v>
+        <v>67931</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
@@ -1829,7 +1826,7 @@
         <v>144</v>
       </c>
       <c r="I17" s="7">
-        <v>105388</v>
+        <v>96874</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -1844,7 +1841,7 @@
         <v>223</v>
       </c>
       <c r="N17" s="7">
-        <v>176552</v>
+        <v>164805</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -1865,7 +1862,7 @@
         <v>415</v>
       </c>
       <c r="D18" s="7">
-        <v>402989</v>
+        <v>388430</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>123</v>
@@ -1880,31 +1877,31 @@
         <v>615</v>
       </c>
       <c r="I18" s="7">
-        <v>433557</v>
+        <v>403266</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>1030</v>
       </c>
       <c r="N18" s="7">
-        <v>836546</v>
+        <v>791696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,46 +1913,46 @@
         <v>166</v>
       </c>
       <c r="D19" s="7">
-        <v>174001</v>
+        <v>166652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>216</v>
       </c>
       <c r="I19" s="7">
-        <v>155798</v>
+        <v>142447</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>382</v>
       </c>
       <c r="N19" s="7">
-        <v>329799</v>
+        <v>309099</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,46 +1964,46 @@
         <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>15341</v>
+        <v>14347</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>5092</v>
+        <v>4887</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>20433</v>
+        <v>19234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2015,7 @@
         <v>681</v>
       </c>
       <c r="D21" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2033,7 +2030,7 @@
         <v>1003</v>
       </c>
       <c r="I21" s="7">
-        <v>712946</v>
+        <v>659588</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2048,7 +2045,7 @@
         <v>1684</v>
       </c>
       <c r="N21" s="7">
-        <v>1385985</v>
+        <v>1306211</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2071,46 +2068,46 @@
         <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>28924</v>
+        <v>28097</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>39570</v>
+        <v>36710</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>68494</v>
+        <v>64807</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,46 +2119,46 @@
         <v>287</v>
       </c>
       <c r="D23" s="7">
-        <v>272627</v>
+        <v>264567</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>577</v>
       </c>
       <c r="I23" s="7">
-        <v>382982</v>
+        <v>352168</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>864</v>
       </c>
       <c r="N23" s="7">
-        <v>655609</v>
+        <v>616735</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,46 +2170,46 @@
         <v>2000</v>
       </c>
       <c r="D24" s="7">
-        <v>1961328</v>
+        <v>1903604</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>3179</v>
       </c>
       <c r="I24" s="7">
-        <v>2163474</v>
+        <v>2012737</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>5179</v>
       </c>
       <c r="N24" s="7">
-        <v>4124802</v>
+        <v>3916341</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2221,13 @@
         <v>978</v>
       </c>
       <c r="D25" s="7">
-        <v>990531</v>
+        <v>944461</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>176</v>
@@ -2239,7 +2236,7 @@
         <v>1445</v>
       </c>
       <c r="I25" s="7">
-        <v>1149271</v>
+        <v>1193863</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>177</v>
@@ -2254,7 +2251,7 @@
         <v>2423</v>
       </c>
       <c r="N25" s="7">
-        <v>2139801</v>
+        <v>2138324</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>180</v>
@@ -2275,7 +2272,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="7">
-        <v>123284</v>
+        <v>311160</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>183</v>
@@ -2290,7 +2287,7 @@
         <v>85</v>
       </c>
       <c r="I26" s="7">
-        <v>58155</v>
+        <v>52840</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>186</v>
@@ -2305,16 +2302,16 @@
         <v>152</v>
       </c>
       <c r="N26" s="7">
-        <v>181440</v>
+        <v>364001</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2323,7 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2341,7 +2338,7 @@
         <v>5344</v>
       </c>
       <c r="I27" s="7">
-        <v>3793452</v>
+        <v>3648318</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2356,7 +2353,7 @@
         <v>8708</v>
       </c>
       <c r="N27" s="7">
-        <v>7170146</v>
+        <v>7100207</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2370,7 +2367,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
